--- a/XX_Url/HomeDepot_URL.xlsx
+++ b/XX_Url/HomeDepot_URL.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://orgcorona-my.sharepoint.com/personal/jmonsalvo_corona_com_co/Documents/03_Proy_ID/03_MACHINE_LEARNING/01_Projects/11_Web_Scrapping/Pricing/Scrapping_git/XX_Url/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="23" documentId="13_ncr:1_{ADD8D484-5C23-40E6-B751-62A63769F47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{055EE3FC-9AF9-43BD-9270-32C566317AB4}"/>
+  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{ADD8D484-5C23-40E6-B751-62A63769F47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFBD3B14-E175-400E-A930-74FFBCCC7898}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HomeDepot_URL" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="62">
   <si>
     <t>https://www.homedepot.com/p/American-Standard-Cadet-3-1-28-GPF-Single-Flush-Toilet-Tank-Only-in-White-4021-101N-020/204309785</t>
   </si>
@@ -66,9 +66,6 @@
     <t>Bowl Height</t>
   </si>
   <si>
-    <t>Name</t>
-  </si>
-  <si>
     <t>4021.101N</t>
   </si>
   <si>
@@ -138,15 +135,9 @@
     <t>Capacidad (Gpl)</t>
   </si>
   <si>
-    <t>Round</t>
-  </si>
-  <si>
     <t>Fabricante</t>
   </si>
   <si>
-    <t>Homólogo Mansfield</t>
-  </si>
-  <si>
     <t>American Standard</t>
   </si>
   <si>
@@ -172,6 +163,60 @@
   </si>
   <si>
     <t>147010000</t>
+  </si>
+  <si>
+    <t>Homologo Mansfield</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Descripcion</t>
+  </si>
+  <si>
+    <t>Short Name</t>
+  </si>
+  <si>
+    <t>Tank</t>
+  </si>
+  <si>
+    <t>American Std Cadet 3 1,28 gpf Tank</t>
+  </si>
+  <si>
+    <t>American Std Cadet 3 1,6 gpf Tank</t>
+  </si>
+  <si>
+    <t>Bowl</t>
+  </si>
+  <si>
+    <t>12</t>
+  </si>
+  <si>
+    <t>American Std Cadet 3 Chair Height EL Bowl</t>
+  </si>
+  <si>
+    <t>Round Front</t>
+  </si>
+  <si>
+    <t>American Std Cadet 3 Chair Height RF Bowl</t>
+  </si>
+  <si>
+    <t>American Std Cadet 3 Std RF Bowl</t>
+  </si>
+  <si>
+    <t>4142100</t>
+  </si>
+  <si>
+    <t>American Std Cadet 3 1,1 gpf Tank</t>
+  </si>
+  <si>
+    <t>3483001</t>
+  </si>
+  <si>
+    <t>American Std Cadet Std EL Bowl</t>
+  </si>
+  <si>
+    <t>3481001</t>
   </si>
 </sst>
 </file>
@@ -710,16 +755,13 @@
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="33" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -738,6 +780,12 @@
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="10" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="44">
@@ -1096,10 +1144,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J9"/>
+  <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D18" sqref="D18"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1107,309 +1155,360 @@
     <col min="1" max="1" width="21.5703125" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
     <col min="3" max="3" width="13.7109375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="16.28515625" customWidth="1"/>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-    <col min="7" max="7" width="20.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="20.7109375" customWidth="1"/>
-    <col min="9" max="9" width="87.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="214" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.28515625" customWidth="1"/>
+    <col min="7" max="7" width="16.42578125" customWidth="1"/>
+    <col min="8" max="8" width="20.7109375" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.7109375" customWidth="1"/>
+    <col min="10" max="10" width="87.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="214" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:12" s="9" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B2" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="C2" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="D2" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I2" s="3">
+        <v>1.28</v>
+      </c>
+      <c r="J2" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="K2" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F1" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G1" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H1" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>31</v>
+      <c r="C3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I3" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="J3" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="B2" s="4" t="s">
+      <c r="C4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I4" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="J4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="K4" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" s="8" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D5" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="F5" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I5" s="3">
+        <v>1.28</v>
+      </c>
+      <c r="J5" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="K5" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="L5" s="8" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D6" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="I6" s="3">
+        <v>1.28</v>
+      </c>
+      <c r="J6" s="6" t="s">
+        <v>25</v>
+      </c>
+      <c r="K6" s="6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" s="8" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="4">
-        <v>1.28</v>
-      </c>
-      <c r="I2" s="7" t="s">
+      <c r="G7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="I7" s="3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="J7" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="K7" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="L7" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="D8" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G8" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="J2" s="8" t="s">
-        <v>0</v>
+      <c r="H8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I8" s="3">
+        <v>1.6</v>
+      </c>
+      <c r="J8" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="K8" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L8" s="7" t="s">
+        <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="4">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="D9" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="I9" s="3">
         <v>1.6</v>
       </c>
-      <c r="I3" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="J3" s="8" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A4" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="6">
-        <v>12</v>
-      </c>
-      <c r="F4" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H4" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="I4" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="9" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B5" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E5" s="6">
-        <v>12</v>
-      </c>
-      <c r="F5" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H5" s="4">
-        <v>1.28</v>
-      </c>
-      <c r="I5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="J5" s="9" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B6" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E6" s="6">
-        <v>12</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G6" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="H6" s="4">
-        <v>1.28</v>
-      </c>
-      <c r="I6" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="J6" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B7" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="C7" s="4">
-        <v>4142100</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="E7" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G7" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="H7" s="4">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="I7" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="J7" s="9" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A8" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="C8" s="4">
-        <v>3483001</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E8" s="6">
-        <v>12</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G8" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H8" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="I8" s="7" t="s">
+      <c r="J9" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="J8" s="8" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C9" s="4">
-        <v>3481001</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="6">
-        <v>12</v>
-      </c>
-      <c r="F9" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="4">
-        <v>1.6</v>
-      </c>
-      <c r="I9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="J9" s="9" t="s">
+      <c r="K9" s="6" t="s">
+        <v>60</v>
+      </c>
+      <c r="L9" s="8" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
-  <hyperlinks>
-    <hyperlink ref="J2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="J3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="J8" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/XX_Url/HomeDepot_URL.xlsx
+++ b/XX_Url/HomeDepot_URL.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://orgcorona-my.sharepoint.com/personal/jmonsalvo_corona_com_co/Documents/03_Proy_ID/03_MACHINE_LEARNING/01_Projects/11_Web_Scrapping/Pricing/Scrapping_git/XX_Url/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://orgcorona-my.sharepoint.com/personal/jmonsalvo_corona_com_co/Documents/03_Proy_ID/03_MACHINE_LEARNING/01_Projects/11_Web_Scrapping/Pricing/00_Sprint/00_Scrapping_code/XX_Url/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="29" documentId="13_ncr:1_{ADD8D484-5C23-40E6-B751-62A63769F47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BFBD3B14-E175-400E-A930-74FFBCCC7898}"/>
+  <xr:revisionPtr revIDLastSave="32" documentId="13_ncr:1_{ADD8D484-5C23-40E6-B751-62A63769F47D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{6F400A91-EA15-4447-8BF8-69811FFF3007}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="24240" windowHeight="17640" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="HomeDepot_URL" sheetId="2" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="63">
   <si>
     <t>https://www.homedepot.com/p/American-Standard-Cadet-3-1-28-GPF-Single-Flush-Toilet-Tank-Only-in-White-4021-101N-020/204309785</t>
   </si>
@@ -217,6 +217,9 @@
   </si>
   <si>
     <t>3481001</t>
+  </si>
+  <si>
+    <t>American Std Cadet Std EL Bowl RH</t>
   </si>
 </sst>
 </file>
@@ -1146,8 +1149,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="K2" sqref="K2:K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1464,7 +1467,7 @@
         <v>28</v>
       </c>
       <c r="K8" s="6" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="L8" s="7" t="s">
         <v>6</v>
@@ -1509,6 +1512,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="L8" r:id="rId1" xr:uid="{47EEE76E-0A49-4E89-9746-D7AA60FEA658}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>